--- a/trunk/papers/emooc2017/EMOOC-CONFERENCE.xlsx
+++ b/trunk/papers/emooc2017/EMOOC-CONFERENCE.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repositories\github\mooc-research-public\trunk\papers\emooc2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Google-Drive\dropbox\uc3m\research\papers\2017\emooc-conference\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="COURSERA-RAW" sheetId="1" r:id="rId1"/>
@@ -8556,6 +8556,13 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -8573,13 +8580,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -8693,7 +8693,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:L38" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:L38" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:L38"/>
   <sortState ref="A2:L38">
     <sortCondition descending="1" ref="J1:J38"/>
@@ -8702,14 +8702,14 @@
     <tableColumn id="1" name="University"/>
     <tableColumn id="2" name="Country"/>
     <tableColumn id="8" name="Country Code"/>
-    <tableColumn id="3" name="Size of the university" dataDxfId="5"/>
+    <tableColumn id="3" name="Size of the university" dataDxfId="4"/>
     <tableColumn id="4" name="Value of size of the university">
       <calculatedColumnFormula>IF(D2&lt;=5000,1,IF(D2&lt;=15000,2,IF(D2&lt;=25000,3,IF(D2&lt;=35000,4,5))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" name="Shangai Ranking 2016 (custom)">
       <calculatedColumnFormula>Table3[[#This Row],[Shangai Ranking 2016]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Shangai Ranking 2016" dataDxfId="4"/>
+    <tableColumn id="5" name="Shangai Ranking 2016" dataDxfId="3"/>
     <tableColumn id="6" name="MOOCs in Coursera"/>
     <tableColumn id="7" name="MOOCs in edX"/>
     <tableColumn id="9" name="M2" dataDxfId="2">
@@ -32086,7 +32086,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32268,6 +32268,9 @@
       <c r="B16" t="s">
         <v>2147</v>
       </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -32322,7 +32325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A131" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -36237,8 +36240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:S12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36948,154 +36951,154 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B17" t="str">
+        <f>'EDX-EUROPE'!B16</f>
+        <v>France</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2779</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>IF(D17&lt;=5000,1,IF(D17&lt;=15000,2,IF(D17&lt;=25000,3,IF(D17&lt;=35000,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>501</v>
+      </c>
+      <c r="G17" s="5" t="e">
+        <f>VLOOKUP(A17,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(Table3[[#This Row],[Value of size of the university]])</f>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="K17" s="2">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.69220062755534639</v>
+      </c>
+      <c r="L17" s="2">
+        <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
+        <v>2.7237238323058088</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>2228</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B18" t="str">
         <f>COURSERA_EUROPE!I39</f>
         <v>Denmark</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>2778</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18" s="3">
         <v>11190</v>
       </c>
-      <c r="E17">
-        <f>IF(D17&lt;=5000,1,IF(D17&lt;=15000,2,IF(D17&lt;=25000,3,IF(D17&lt;=35000,4,5))))</f>
+      <c r="E18">
+        <f>IF(D18&lt;=5000,1,IF(D18&lt;=15000,2,IF(D18&lt;=25000,3,IF(D18&lt;=35000,4,5))))</f>
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>151</v>
       </c>
-      <c r="G17" s="5" t="str">
-        <f>VLOOKUP(A17,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
+      <c r="G18" s="5" t="str">
+        <f>VLOOKUP(A18,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
         <v>151-200</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>2</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J18" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(Table3[[#This Row],[Value of size of the university]])</f>
         <v>0.2706705664732254</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K18" s="2">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.7628677692336272</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L18" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
         <v>2.7051224534189644</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>2192</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B19" t="str">
         <f>COURSERA_EUROPE!I11</f>
         <v>Netherlands</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>2783</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="3">
         <v>24270</v>
       </c>
-      <c r="E18">
-        <f>IF(D18&lt;=5000,1,IF(D18&lt;=15000,2,IF(D18&lt;=25000,3,IF(D18&lt;=35000,4,5))))</f>
+      <c r="E19">
+        <f>IF(D19&lt;=5000,1,IF(D19&lt;=15000,2,IF(D19&lt;=25000,3,IF(D19&lt;=35000,4,5))))</f>
         <v>3</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <f>Table3[[#This Row],[Shangai Ranking 2016]]</f>
         <v>93</v>
       </c>
-      <c r="G18" s="5">
-        <f>VLOOKUP(A18,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
+      <c r="G19" s="5">
+        <f>VLOOKUP(A19,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
         <v>93</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>5</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J19" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(Table3[[#This Row],[Value of size of the university]])</f>
         <v>0.2489353418393197</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K19" s="2">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.77963038122150408</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L19" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
         <v>6.0221113018881489</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>2767</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B20" t="str">
         <f>'EDX-EUROPE'!B18</f>
         <v>Russia</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>2784</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="3">
         <v>12000</v>
-      </c>
-      <c r="E19">
-        <f>IF(D19&lt;=5000,1,IF(D19&lt;=15000,2,IF(D19&lt;=25000,3,IF(D19&lt;=35000,4,5))))</f>
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>501</v>
-      </c>
-      <c r="G19" s="5" t="e">
-        <f>VLOOKUP(A19,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(Table3[[#This Row],[Value of size of the university]])</f>
-        <v>0.1353352832366127</v>
-      </c>
-      <c r="K19" s="2">
-        <f>EXP(-Table3[[#This Row],[M2]])</f>
-        <v>0.87342301849311665</v>
-      </c>
-      <c r="L19" s="2">
-        <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
-        <v>2.7237238323058088</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2256</v>
-      </c>
-      <c r="B20" t="str">
-        <f>COURSERA_EUROPE!I40</f>
-        <v>Netherlands</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2783</v>
-      </c>
-      <c r="D20" s="3">
-        <v>9711</v>
       </c>
       <c r="E20">
         <f>IF(D20&lt;=5000,1,IF(D20&lt;=15000,2,IF(D20&lt;=25000,3,IF(D20&lt;=35000,4,5))))</f>
         <v>2</v>
       </c>
       <c r="F20">
-        <v>201</v>
-      </c>
-      <c r="G20" s="5" t="str">
+        <v>501</v>
+      </c>
+      <c r="G20" s="5" t="e">
         <f>VLOOKUP(A20,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
-        <v>201-300</v>
-      </c>
-      <c r="H20">
+        <v>#N/A</v>
+      </c>
+      <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" s="2">
@@ -37108,22 +37111,22 @@
       </c>
       <c r="L20" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
-        <v>1.4948113326760428</v>
+        <v>2.7237238323058088</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2279</v>
+        <v>2256</v>
       </c>
       <c r="B21" t="str">
-        <f>COURSERA_EUROPE!I69</f>
-        <v>Switzerland</v>
+        <f>COURSERA_EUROPE!I40</f>
+        <v>Netherlands</v>
       </c>
       <c r="C21" t="s">
-        <v>2787</v>
+        <v>2783</v>
       </c>
       <c r="D21" s="3">
-        <v>13500</v>
+        <v>9711</v>
       </c>
       <c r="E21">
         <f>IF(D21&lt;=5000,1,IF(D21&lt;=15000,2,IF(D21&lt;=25000,3,IF(D21&lt;=35000,4,5))))</f>
@@ -37154,202 +37157,201 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B22" t="str">
+        <f>COURSERA_EUROPE!I69</f>
+        <v>Switzerland</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D22" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E22">
+        <f>IF(D22&lt;=5000,1,IF(D22&lt;=15000,2,IF(D22&lt;=25000,3,IF(D22&lt;=35000,4,5))))</f>
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>201</v>
+      </c>
+      <c r="G22" s="5" t="str">
+        <f>VLOOKUP(A22,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
+        <v>201-300</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(Table3[[#This Row],[Value of size of the university]])</f>
+        <v>0.1353352832366127</v>
+      </c>
+      <c r="K22" s="2">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.87342301849311665</v>
+      </c>
+      <c r="L22" s="2">
+        <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
+        <v>1.4948113326760428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>2168</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B23" t="str">
         <f>COURSERA_EUROPE!I4</f>
         <v>UK</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>2158</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D23" s="4">
         <v>35582</v>
       </c>
-      <c r="E22">
-        <f>IF(D22&lt;=5000,1,IF(D22&lt;=15000,2,IF(D22&lt;=25000,3,IF(D22&lt;=35000,4,5))))</f>
+      <c r="E23">
+        <f>IF(D23&lt;=5000,1,IF(D23&lt;=15000,2,IF(D23&lt;=25000,3,IF(D23&lt;=35000,4,5))))</f>
         <v>5</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <f>Table3[[#This Row],[Shangai Ranking 2016]]</f>
         <v>41</v>
       </c>
-      <c r="G22" s="5">
-        <f>VLOOKUP(A22,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
+      <c r="G23" s="5">
+        <f>VLOOKUP(A23,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
         <v>41</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>14</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>3</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J23" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(Table3[[#This Row],[Value of size of the university]])</f>
         <v>0.11454509898445295</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K23" s="2">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.89177171951230227</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L23" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
         <v>18.452748767102332</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>2176</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B24" t="str">
         <f>COURSERA_EUROPE!I15</f>
         <v>Switzerland</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>2787</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="3">
         <v>25732</v>
       </c>
-      <c r="E23">
-        <f>IF(D23&lt;=5000,1,IF(D23&lt;=15000,2,IF(D23&lt;=25000,3,IF(D23&lt;=35000,4,5))))</f>
+      <c r="E24">
+        <f>IF(D24&lt;=5000,1,IF(D24&lt;=15000,2,IF(D24&lt;=25000,3,IF(D24&lt;=35000,4,5))))</f>
         <v>4</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <f>Table3[[#This Row],[Shangai Ranking 2016]]</f>
         <v>54</v>
       </c>
-      <c r="G23" s="5">
-        <f>VLOOKUP(A23,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
+      <c r="G24" s="5">
+        <f>VLOOKUP(A24,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
         <v>54</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <v>6</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J24" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(Table3[[#This Row],[Value of size of the university]])</f>
         <v>0.10989383333240509</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K24" s="2">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.89592924807020424</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L24" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
         <v>6.6842864723188056</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>2189</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B25" t="str">
         <f>COURSERA_EUROPE!I8</f>
         <v>Israel</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>2781</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>23000</v>
       </c>
-      <c r="E24">
-        <f>IF(D24&lt;=5000,1,IF(D24&lt;=15000,2,IF(D24&lt;=25000,3,IF(D24&lt;=35000,4,5))))</f>
+      <c r="E25">
+        <f>IF(D25&lt;=5000,1,IF(D25&lt;=15000,2,IF(D25&lt;=25000,3,IF(D25&lt;=35000,4,5))))</f>
         <v>3</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <f>Table3[[#This Row],[Shangai Ranking 2016]]</f>
         <v>87</v>
       </c>
-      <c r="G24" s="5">
-        <f>VLOOKUP(A24,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
+      <c r="G25" s="5">
+        <f>VLOOKUP(A25,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
         <v>87</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>2</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J25" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(Table3[[#This Row],[Value of size of the university]])</f>
         <v>9.9574136735727889E-2</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K25" s="2">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.90522283711452844</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L25" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
         <v>2.3801111316407253</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>2250</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B26" t="str">
         <f>'EDX-EUROPE'!B19</f>
         <v>Spain</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>2785</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="3">
         <f>32206+3912</f>
         <v>36118</v>
-      </c>
-      <c r="E25">
-        <f>IF(D25&lt;=5000,1,IF(D25&lt;=15000,2,IF(D25&lt;=25000,3,IF(D25&lt;=35000,4,5))))</f>
-        <v>5</v>
-      </c>
-      <c r="F25">
-        <v>201</v>
-      </c>
-      <c r="G25" s="5" t="str">
-        <f>VLOOKUP(A25,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
-        <v>201-300</v>
-      </c>
-      <c r="I25">
-        <v>8</v>
-      </c>
-      <c r="J25" s="2">
-        <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(Table3[[#This Row],[Value of size of the university]])</f>
-        <v>5.3903575992683736E-2</v>
-      </c>
-      <c r="K25" s="2">
-        <f>EXP(-Table3[[#This Row],[M2]])</f>
-        <v>0.94752346610672611</v>
-      </c>
-      <c r="L25" s="2">
-        <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
-        <v>11.958490661408343</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>2166</v>
-      </c>
-      <c r="B26" t="str">
-        <f>COURSERA_EUROPE!I6</f>
-        <v>UK</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2158</v>
-      </c>
-      <c r="D26" s="3">
-        <v>38590</v>
       </c>
       <c r="E26">
         <f>IF(D26&lt;=5000,1,IF(D26&lt;=15000,2,IF(D26&lt;=25000,3,IF(D26&lt;=35000,4,5))))</f>
         <v>5</v>
       </c>
       <c r="F26">
-        <f>Table3[[#This Row],[Shangai Ranking 2016]]</f>
-        <v>35</v>
-      </c>
-      <c r="G26" s="5">
+        <v>201</v>
+      </c>
+      <c r="G26" s="5" t="str">
         <f>VLOOKUP(A26,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
-        <v>35</v>
-      </c>
-      <c r="H26">
+        <v>201-300</v>
+      </c>
+      <c r="I26">
         <v>8</v>
       </c>
       <c r="J26" s="2">
@@ -37362,22 +37364,22 @@
       </c>
       <c r="L26" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
-        <v>8.5800654500337306</v>
+        <v>11.958490661408343</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>2162</v>
+        <v>2166</v>
       </c>
       <c r="B27" t="str">
-        <f>COURSERA_EUROPE!I10</f>
+        <f>COURSERA_EUROPE!I6</f>
         <v>UK</v>
       </c>
       <c r="C27" t="s">
         <v>2158</v>
       </c>
-      <c r="D27" s="4">
-        <v>161270</v>
+      <c r="D27" s="3">
+        <v>38590</v>
       </c>
       <c r="E27">
         <f>IF(D27&lt;=5000,1,IF(D27&lt;=15000,2,IF(D27&lt;=25000,3,IF(D27&lt;=35000,4,5))))</f>
@@ -37385,11 +37387,11 @@
       </c>
       <c r="F27">
         <f>Table3[[#This Row],[Shangai Ranking 2016]]</f>
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G27" s="5">
         <f>VLOOKUP(A27,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>8</v>
@@ -37404,77 +37406,77 @@
       </c>
       <c r="L27" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
-        <v>8.2766768538249433</v>
+        <v>8.5800654500337306</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B28" t="str">
+        <f>COURSERA_EUROPE!I10</f>
+        <v>UK</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D28" s="4">
+        <v>161270</v>
+      </c>
+      <c r="E28">
+        <f>IF(D28&lt;=5000,1,IF(D28&lt;=15000,2,IF(D28&lt;=25000,3,IF(D28&lt;=35000,4,5))))</f>
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <f>Table3[[#This Row],[Shangai Ranking 2016]]</f>
+        <v>17</v>
+      </c>
+      <c r="G28" s="5">
+        <f>VLOOKUP(A28,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="J28" s="2">
+        <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(Table3[[#This Row],[Value of size of the university]])</f>
+        <v>5.3903575992683736E-2</v>
+      </c>
+      <c r="K28" s="2">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.94752346610672611</v>
+      </c>
+      <c r="L28" s="2">
+        <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
+        <v>8.2766768538249433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>2404</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B29" t="str">
         <f>COURSERA_EUROPE!I3</f>
         <v>Denmark</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>2778</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D29" s="3">
         <v>22829</v>
-      </c>
-      <c r="E28">
-        <f>IF(D28&lt;=5000,1,IF(D28&lt;=15000,2,IF(D28&lt;=25000,3,IF(D28&lt;=35000,4,5))))</f>
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>501</v>
-      </c>
-      <c r="G28" s="5" t="e">
-        <f>VLOOKUP(A28,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="J28" s="2">
-        <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(Table3[[#This Row],[Value of size of the university]])</f>
-        <v>4.9787068367863944E-2</v>
-      </c>
-      <c r="K28" s="2">
-        <f>EXP(-Table3[[#This Row],[M2]])</f>
-        <v>0.95143199290045344</v>
-      </c>
-      <c r="L28" s="2">
-        <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
-        <v>2.7237238323058088</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>2161</v>
-      </c>
-      <c r="B29" t="str">
-        <f>'EDX-EUROPE'!B14</f>
-        <v>UK</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2158</v>
-      </c>
-      <c r="D29" s="3">
-        <v>22602</v>
       </c>
       <c r="E29">
         <f>IF(D29&lt;=5000,1,IF(D29&lt;=15000,2,IF(D29&lt;=25000,3,IF(D29&lt;=35000,4,5))))</f>
         <v>3</v>
       </c>
       <c r="F29">
-        <f>Table3[[#This Row],[Shangai Ranking 2016]]</f>
-        <v>7</v>
-      </c>
-      <c r="G29" s="5">
+        <v>501</v>
+      </c>
+      <c r="G29" s="5" t="e">
         <f>VLOOKUP(A29,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="I29">
+        <v>#N/A</v>
+      </c>
+      <c r="H29">
         <v>1</v>
       </c>
       <c r="J29" s="2">
@@ -37487,105 +37489,106 @@
       </c>
       <c r="L29" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
-        <v>1.0140984589384923</v>
+        <v>2.7237238323058088</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B30" t="str">
+        <f>'EDX-EUROPE'!B14</f>
+        <v>UK</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D30" s="3">
+        <v>22602</v>
+      </c>
+      <c r="E30">
+        <f>IF(D30&lt;=5000,1,IF(D30&lt;=15000,2,IF(D30&lt;=25000,3,IF(D30&lt;=35000,4,5))))</f>
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <f>Table3[[#This Row],[Shangai Ranking 2016]]</f>
+        <v>7</v>
+      </c>
+      <c r="G30" s="5">
+        <f>VLOOKUP(A30,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(Table3[[#This Row],[Value of size of the university]])</f>
+        <v>4.9787068367863944E-2</v>
+      </c>
+      <c r="K30" s="2">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.95143199290045344</v>
+      </c>
+      <c r="L30" s="2">
+        <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
+        <v>1.0140984589384923</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>2191</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B31" t="str">
         <f>'EDX-EUROPE'!B9</f>
         <v>Belgium</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>2777</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D31" s="3">
         <v>55484</v>
-      </c>
-      <c r="E30">
-        <f>IF(D30&lt;=5000,1,IF(D30&lt;=15000,2,IF(D30&lt;=25000,3,IF(D30&lt;=35000,4,5))))</f>
-        <v>5</v>
-      </c>
-      <c r="F30">
-        <f>Table3[[#This Row],[Shangai Ranking 2016]]</f>
-        <v>93</v>
-      </c>
-      <c r="G30" s="5">
-        <f>VLOOKUP(A30,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
-        <v>93</v>
-      </c>
-      <c r="I30">
-        <v>7</v>
-      </c>
-      <c r="J30" s="2">
-        <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(Table3[[#This Row],[Value of size of the university]])</f>
-        <v>4.7165628993598274E-2</v>
-      </c>
-      <c r="K30" s="2">
-        <f>EXP(-Table3[[#This Row],[M2]])</f>
-        <v>0.95392938614090339</v>
-      </c>
-      <c r="L30" s="2">
-        <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
-        <v>8.4309558226434085</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>2775</v>
-      </c>
-      <c r="B31" t="str">
-        <f>COURSERA_EUROPE!I26</f>
-        <v>Germany</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2780</v>
-      </c>
-      <c r="D31" s="3">
-        <v>50542</v>
       </c>
       <c r="E31">
         <f>IF(D31&lt;=5000,1,IF(D31&lt;=15000,2,IF(D31&lt;=25000,3,IF(D31&lt;=35000,4,5))))</f>
         <v>5</v>
       </c>
       <c r="F31">
-        <v>501</v>
-      </c>
-      <c r="G31" s="5" t="e">
+        <f>Table3[[#This Row],[Shangai Ranking 2016]]</f>
+        <v>93</v>
+      </c>
+      <c r="G31" s="5">
         <f>VLOOKUP(A31,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H31">
-        <v>5</v>
+        <v>93</v>
+      </c>
+      <c r="I31">
+        <v>7</v>
       </c>
       <c r="J31" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(Table3[[#This Row],[Value of size of the university]])</f>
-        <v>3.3689734995427337E-2</v>
+        <v>4.7165628993598274E-2</v>
       </c>
       <c r="K31" s="2">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
-        <v>0.96687144447782469</v>
+        <v>0.95392938614090339</v>
       </c>
       <c r="L31" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
-        <v>13.618619161529043</v>
+        <v>8.4309558226434085</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2760</v>
+        <v>2775</v>
       </c>
       <c r="B32" t="str">
-        <f>'EDX-EUROPE'!B3</f>
-        <v>France</v>
+        <f>COURSERA_EUROPE!I26</f>
+        <v>Germany</v>
       </c>
       <c r="C32" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="D32" s="3">
-        <v>57800</v>
+        <v>50542</v>
       </c>
       <c r="E32">
         <f>IF(D32&lt;=5000,1,IF(D32&lt;=15000,2,IF(D32&lt;=25000,3,IF(D32&lt;=35000,4,5))))</f>
@@ -37598,7 +37601,7 @@
         <f>VLOOKUP(A32,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I32">
+      <c r="H32">
         <v>5</v>
       </c>
       <c r="J32" s="2">
@@ -37616,35 +37619,31 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>2172</v>
+        <v>2760</v>
       </c>
       <c r="B33" t="str">
-        <f>COURSERA_EUROPE!I9</f>
-        <v>Germany</v>
+        <f>'EDX-EUROPE'!B3</f>
+        <v>France</v>
       </c>
       <c r="C33" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="D33" s="3">
-        <v>40000</v>
+        <v>57800</v>
       </c>
       <c r="E33">
         <f>IF(D33&lt;=5000,1,IF(D33&lt;=15000,2,IF(D33&lt;=25000,3,IF(D33&lt;=35000,4,5))))</f>
         <v>5</v>
       </c>
       <c r="F33">
-        <f>Table3[[#This Row],[Shangai Ranking 2016]]</f>
-        <v>47</v>
-      </c>
-      <c r="G33" s="5">
+        <v>501</v>
+      </c>
+      <c r="G33" s="5" t="e">
         <f>VLOOKUP(A33,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
-        <v>47</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J33" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(Table3[[#This Row],[Value of size of the university]])</f>
@@ -37656,115 +37655,119 @@
       </c>
       <c r="L33" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
-        <v>5.4927987295858687</v>
+        <v>13.618619161529043</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>2264</v>
+        <v>2172</v>
       </c>
       <c r="B34" t="str">
-        <f>'EDX-EUROPE'!B2</f>
+        <f>COURSERA_EUROPE!I9</f>
         <v>Germany</v>
       </c>
       <c r="C34" t="s">
         <v>2780</v>
       </c>
       <c r="D34" s="3">
-        <v>42000</v>
+        <v>40000</v>
       </c>
       <c r="E34">
         <f>IF(D34&lt;=5000,1,IF(D34&lt;=15000,2,IF(D34&lt;=25000,3,IF(D34&lt;=35000,4,5))))</f>
         <v>5</v>
       </c>
       <c r="F34">
-        <v>201</v>
-      </c>
-      <c r="G34" s="5" t="str">
+        <f>Table3[[#This Row],[Shangai Ranking 2016]]</f>
+        <v>47</v>
+      </c>
+      <c r="G34" s="5">
         <f>VLOOKUP(A34,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
-        <v>201-300</v>
+        <v>47</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J34" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(Table3[[#This Row],[Value of size of the university]])</f>
-        <v>2.6951787996341868E-2</v>
+        <v>3.3689734995427337E-2</v>
       </c>
       <c r="K34" s="2">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
-        <v>0.97340817035133109</v>
+        <v>0.96687144447782469</v>
       </c>
       <c r="L34" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
-        <v>5.9792453307041713</v>
+        <v>5.4927987295858687</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>2227</v>
+        <v>2264</v>
       </c>
       <c r="B35" t="str">
-        <f>COURSERA_EUROPE!I19</f>
-        <v>Italy</v>
+        <f>'EDX-EUROPE'!B2</f>
+        <v>Germany</v>
       </c>
       <c r="C35" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
       <c r="D35" s="3">
-        <v>112564</v>
+        <v>42000</v>
       </c>
       <c r="E35">
         <f>IF(D35&lt;=5000,1,IF(D35&lt;=15000,2,IF(D35&lt;=25000,3,IF(D35&lt;=35000,4,5))))</f>
         <v>5</v>
       </c>
       <c r="F35">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="G35" s="5" t="str">
         <f>VLOOKUP(A35,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
-        <v>151-200</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
+        <v>201-300</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
       </c>
       <c r="J35" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(Table3[[#This Row],[Value of size of the university]])</f>
-        <v>6.737946999085467E-3</v>
+        <v>2.6951787996341868E-2</v>
       </c>
       <c r="K35" s="2">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
-        <v>0.99328470206784147</v>
+        <v>0.97340817035133109</v>
       </c>
       <c r="L35" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
-        <v>1.3525612267094822</v>
+        <v>5.9792453307041713</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>2197</v>
+        <v>2227</v>
       </c>
       <c r="B36" t="str">
-        <f>COURSERA_EUROPE!I2</f>
-        <v>Sweden</v>
+        <f>COURSERA_EUROPE!I19</f>
+        <v>Italy</v>
       </c>
       <c r="C36" t="s">
-        <v>2786</v>
+        <v>2782</v>
       </c>
       <c r="D36" s="3">
-        <v>41000</v>
+        <v>112564</v>
       </c>
       <c r="E36">
         <f>IF(D36&lt;=5000,1,IF(D36&lt;=15000,2,IF(D36&lt;=25000,3,IF(D36&lt;=35000,4,5))))</f>
         <v>5</v>
       </c>
       <c r="F36">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="G36" s="5" t="str">
         <f>VLOOKUP(A36,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
-        <v>101-150</v>
+        <v>151-200</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -37779,75 +37782,75 @@
       </c>
       <c r="L36" s="2">
         <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
-        <v>1.2238480081113581</v>
+        <v>1.3525612267094822</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B37" t="str">
+        <f>COURSERA_EUROPE!I2</f>
+        <v>Sweden</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2786</v>
+      </c>
+      <c r="D37" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E37">
+        <f>IF(D37&lt;=5000,1,IF(D37&lt;=15000,2,IF(D37&lt;=25000,3,IF(D37&lt;=35000,4,5))))</f>
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>101</v>
+      </c>
+      <c r="G37" s="5" t="str">
+        <f>VLOOKUP(A37,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
+        <v>101-150</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(Table3[[#This Row],[Value of size of the university]])</f>
+        <v>6.737946999085467E-3</v>
+      </c>
+      <c r="K37" s="2">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.99328470206784147</v>
+      </c>
+      <c r="L37" s="2">
+        <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
+        <v>1.2238480081113581</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>2164</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B38" t="str">
         <f>'EDX-EUROPE'!B7</f>
         <v>UK</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>2158</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D38" s="3">
         <v>16610</v>
       </c>
-      <c r="E37">
-        <f>IF(D37&lt;=5000,1,IF(D37&lt;=15000,2,IF(D37&lt;=25000,3,IF(D37&lt;=35000,4,5))))</f>
+      <c r="E38">
+        <f>IF(D38&lt;=5000,1,IF(D38&lt;=15000,2,IF(D38&lt;=25000,3,IF(D38&lt;=35000,4,5))))</f>
         <v>3</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <f>Table3[[#This Row],[Shangai Ranking 2016]]</f>
         <v>22</v>
       </c>
-      <c r="G37" s="5">
-        <f>VLOOKUP(A37,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
+      <c r="G38" s="5">
+        <f>VLOOKUP(A38,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
         <v>22</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2">
-        <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(Table3[[#This Row],[Value of size of the university]])</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
-        <f>EXP(-Table3[[#This Row],[M2]])</f>
-        <v>1</v>
-      </c>
-      <c r="L37" s="2">
-        <f>SUM(Table3[[#This Row],[MOOCs in Coursera]:[MOOCs in edX]])/EXP(-Table3[[#This Row],[Shangai Ranking 2016 (custom)]]/500)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>2765</v>
-      </c>
-      <c r="B38" t="str">
-        <f>'EDX-EUROPE'!B16</f>
-        <v>France</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2779</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <f>IF(D38&lt;=5000,1,IF(D38&lt;=15000,2,IF(D38&lt;=25000,3,IF(D38&lt;=35000,4,5))))</f>
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>501</v>
-      </c>
-      <c r="G38" s="5" t="e">
-        <f>VLOOKUP(A38,'SHANGAI-ALUMNI-2016'!A$2:F$210,6,FALSE)</f>
-        <v>#N/A</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -37913,7 +37916,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="2">
-        <f>B2/C2</f>
+        <f t="shared" ref="D2:D12" si="0">B2/C2</f>
         <v>0.31818181818181818</v>
       </c>
     </row>
@@ -37930,7 +37933,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2">
-        <f>B3/C3</f>
+        <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
     </row>
@@ -37947,7 +37950,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="2">
-        <f>B4/C4</f>
+        <f t="shared" si="0"/>
         <v>0.1388888888888889</v>
       </c>
     </row>
@@ -37964,7 +37967,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="2">
-        <f>B5/C5</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
@@ -37981,7 +37984,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2">
-        <f>B6/C6</f>
+        <f t="shared" si="0"/>
         <v>0.27272727272727271</v>
       </c>
     </row>
@@ -37998,7 +38001,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="2">
-        <f>B7/C7</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
@@ -38015,7 +38018,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="2">
-        <f>B8/C8</f>
+        <f t="shared" si="0"/>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
@@ -38032,7 +38035,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="2">
-        <f>B9/C9</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -38049,7 +38052,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="2">
-        <f>B10/C10</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
@@ -38066,7 +38069,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="2">
-        <f>B11/C11</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
@@ -38083,7 +38086,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="2">
-        <f>B12/C12</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
